--- a/Outputs/IEEE_34_node_test_feeder_modified.xlsx
+++ b/Outputs/IEEE_34_node_test_feeder_modified.xlsx
@@ -1347,16 +1347,16 @@
     <t>LN_806_808</t>
   </si>
   <si>
-    <t>LN_832_15</t>
-  </si>
-  <si>
-    <t>15_a</t>
-  </si>
-  <si>
-    <t>15_b</t>
-  </si>
-  <si>
-    <t>15_c</t>
+    <t>//LN_832_15</t>
+  </si>
+  <si>
+    <t>15_unknown_a</t>
+  </si>
+  <si>
+    <t>15_unknown_b</t>
+  </si>
+  <si>
+    <t>15_unknown_c</t>
   </si>
   <si>
     <t>LN_854_852</t>

--- a/Outputs/IEEE_34_node_test_feeder_modified.xlsx
+++ b/Outputs/IEEE_34_node_test_feeder_modified.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unbcloud-my.sharepoint.com/personal/ebelliv1_unb_ca/Documents/Smart Grid/Github/CYME-EXTRACT/Outputs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_81E8CC51DCEA13A67559E58E14678957D7ED2075" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{711694DB-8439-4BB3-A429-EAA3B07D0742}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
     <sheet name="Switch" sheetId="8" r:id="rId8"/>
     <sheet name="Shunt" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1650,15 +1656,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="0.00"/>
-    <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.00000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1733,34 +1738,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1798,7 +1813,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1832,6 +1847,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1866,9 +1882,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2041,18 +2058,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2060,7 +2077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2068,7 +2085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2076,7 +2093,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2090,19 +2107,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="201" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2227,7 +2244,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2352,7 +2369,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2471,7 +2488,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2590,7 +2607,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2682,7 +2699,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>192</v>
       </c>
@@ -2699,7 +2716,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>192</v>
       </c>
@@ -2797,19 +2814,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>197</v>
       </c>
@@ -2829,7 +2846,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>203</v>
       </c>
@@ -2849,7 +2866,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>206</v>
       </c>
@@ -2869,7 +2886,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>207</v>
       </c>
@@ -2889,7 +2906,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>208</v>
       </c>
@@ -2909,7 +2926,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>210</v>
       </c>
@@ -2929,7 +2946,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>211</v>
       </c>
@@ -2949,7 +2966,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>212</v>
       </c>
@@ -2969,7 +2986,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>213</v>
       </c>
@@ -2989,7 +3006,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>214</v>
       </c>
@@ -3009,7 +3026,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>215</v>
       </c>
@@ -3029,7 +3046,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>216</v>
       </c>
@@ -3049,7 +3066,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>217</v>
       </c>
@@ -3069,7 +3086,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>218</v>
       </c>
@@ -3089,7 +3106,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>219</v>
       </c>
@@ -3109,7 +3126,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>220</v>
       </c>
@@ -3129,7 +3146,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>221</v>
       </c>
@@ -3149,7 +3166,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>222</v>
       </c>
@@ -3169,7 +3186,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>223</v>
       </c>
@@ -3189,7 +3206,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>224</v>
       </c>
@@ -3209,7 +3226,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>225</v>
       </c>
@@ -3229,7 +3246,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>226</v>
       </c>
@@ -3249,7 +3266,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>227</v>
       </c>
@@ -3269,7 +3286,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>228</v>
       </c>
@@ -3289,7 +3306,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>229</v>
       </c>
@@ -3309,7 +3326,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>230</v>
       </c>
@@ -3329,7 +3346,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>231</v>
       </c>
@@ -3349,7 +3366,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>232</v>
       </c>
@@ -3369,7 +3386,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>233</v>
       </c>
@@ -3389,7 +3406,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>234</v>
       </c>
@@ -3409,7 +3426,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>235</v>
       </c>
@@ -3429,7 +3446,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>236</v>
       </c>
@@ -3449,7 +3466,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>237</v>
       </c>
@@ -3469,7 +3486,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>238</v>
       </c>
@@ -3489,7 +3506,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>239</v>
       </c>
@@ -3509,7 +3526,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>240</v>
       </c>
@@ -3529,7 +3546,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>241</v>
       </c>
@@ -3549,7 +3566,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>242</v>
       </c>
@@ -3569,7 +3586,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>243</v>
       </c>
@@ -3589,7 +3606,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>244</v>
       </c>
@@ -3609,7 +3626,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>245</v>
       </c>
@@ -3629,7 +3646,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>246</v>
       </c>
@@ -3649,7 +3666,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>247</v>
       </c>
@@ -3669,7 +3686,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>248</v>
       </c>
@@ -3689,7 +3706,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>249</v>
       </c>
@@ -3709,7 +3726,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>250</v>
       </c>
@@ -3729,7 +3746,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>251</v>
       </c>
@@ -3749,7 +3766,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>252</v>
       </c>
@@ -3769,7 +3786,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>253</v>
       </c>
@@ -3789,7 +3806,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>254</v>
       </c>
@@ -3809,7 +3826,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>255</v>
       </c>
@@ -3829,7 +3846,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>256</v>
       </c>
@@ -3849,7 +3866,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>257</v>
       </c>
@@ -3869,7 +3886,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>258</v>
       </c>
@@ -3889,7 +3906,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>259</v>
       </c>
@@ -3909,7 +3926,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>260</v>
       </c>
@@ -3929,7 +3946,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>261</v>
       </c>
@@ -3949,7 +3966,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>262</v>
       </c>
@@ -3969,7 +3986,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>263</v>
       </c>
@@ -3989,7 +4006,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>264</v>
       </c>
@@ -4009,7 +4026,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>265</v>
       </c>
@@ -4029,7 +4046,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>266</v>
       </c>
@@ -4049,7 +4066,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>267</v>
       </c>
@@ -4069,7 +4086,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>268</v>
       </c>
@@ -4089,7 +4106,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>269</v>
       </c>
@@ -4109,7 +4126,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>270</v>
       </c>
@@ -4129,7 +4146,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>271</v>
       </c>
@@ -4149,7 +4166,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>272</v>
       </c>
@@ -4169,7 +4186,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>273</v>
       </c>
@@ -4189,7 +4206,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>274</v>
       </c>
@@ -4209,7 +4226,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>275</v>
       </c>
@@ -4229,7 +4246,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>276</v>
       </c>
@@ -4249,7 +4266,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>277</v>
       </c>
@@ -4269,7 +4286,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>278</v>
       </c>
@@ -4289,7 +4306,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>279</v>
       </c>
@@ -4309,7 +4326,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>280</v>
       </c>
@@ -4329,7 +4346,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>281</v>
       </c>
@@ -4349,7 +4366,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>282</v>
       </c>
@@ -4369,7 +4386,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>283</v>
       </c>
@@ -4389,7 +4406,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>284</v>
       </c>
@@ -4409,7 +4426,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>285</v>
       </c>
@@ -4429,7 +4446,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>286</v>
       </c>
@@ -4449,7 +4466,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>287</v>
       </c>
@@ -4469,7 +4486,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>288</v>
       </c>
@@ -4489,7 +4506,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>289</v>
       </c>
@@ -4509,7 +4526,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>290</v>
       </c>
@@ -4529,7 +4546,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>291</v>
       </c>
@@ -4555,12 +4572,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="4" width="14.7109375" customWidth="1"/>
@@ -4570,225 +4587,234 @@
     <col min="9" max="10" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>326</v>
       </c>
@@ -4820,46 +4846,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>327</v>
       </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A23:D23"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A26:D26"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" location="'Voltage Source'!A12:F13" display="PositiveSeqVsource"/>
-    <hyperlink ref="A3" location="'Voltage Source'!A16:F17" display="SinglePhaseVsource"/>
-    <hyperlink ref="A4" location="'Voltage Source'!A20:H21" display="ThreePhaseShortCircuitVsource"/>
-    <hyperlink ref="A5" location="'Voltage Source'!A24:J26" display="ThreePhaseSequentialVsource"/>
-    <hyperlink ref="E11" location="'Voltage Source'!A1" display="Go to Type List"/>
-    <hyperlink ref="E15" location="'Voltage Source'!A1" display="Go to Type List"/>
-    <hyperlink ref="E19" location="'Voltage Source'!A1" display="Go to Type List"/>
-    <hyperlink ref="E23" location="'Voltage Source'!A1" display="Go to Type List"/>
+    <hyperlink ref="A2" location="'Voltage Source'!A12:F13" display="PositiveSeqVsource" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A3" location="'Voltage Source'!A16:F17" display="SinglePhaseVsource" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="A4" location="'Voltage Source'!A20:H21" display="ThreePhaseShortCircuitVsource" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="A5" location="'Voltage Source'!A24:J26" display="ThreePhaseSequentialVsource" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="E11" location="'Voltage Source'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="E15" location="'Voltage Source'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="E19" location="'Voltage Source'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="E23" location="'Voltage Source'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" customWidth="1"/>
@@ -4871,12 +4900,12 @@
     <col min="13" max="18" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>328</v>
       </c>
@@ -4884,203 +4913,209 @@
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="5" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>353</v>
       </c>
@@ -5118,7 +5153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>355</v>
       </c>
@@ -5156,7 +5191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>356</v>
       </c>
@@ -5194,7 +5229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>357</v>
       </c>
@@ -5232,7 +5267,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>358</v>
       </c>
@@ -5270,7 +5305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>359</v>
       </c>
@@ -5308,7 +5343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>360</v>
       </c>
@@ -5346,7 +5381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>361</v>
       </c>
@@ -5384,7 +5419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>362</v>
       </c>
@@ -5422,7 +5457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>363</v>
       </c>
@@ -5460,7 +5495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>364</v>
       </c>
@@ -5498,7 +5533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>365</v>
       </c>
@@ -5536,68 +5571,69 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
-      <c r="A37" t="s">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="1" t="s">
+      <c r="B37" s="13"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="J40" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="K40" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="L40" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="M40" s="7" t="s">
+      <c r="M40" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="N40" s="7" t="s">
+      <c r="N40" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="O40" s="7" t="s">
+      <c r="O40" s="5" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>372</v>
       </c>
@@ -5644,7 +5680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>373</v>
       </c>
@@ -5691,7 +5727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>374</v>
       </c>
@@ -5738,77 +5774,78 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
-      <c r="A44" t="s">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="A46" s="1" t="s">
+      <c r="B44" s="13"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="B46" s="1"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="J47" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="K47" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="L47" s="7" t="s">
+      <c r="L47" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="M47" s="7" t="s">
+      <c r="M47" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="N47" s="7" t="s">
+      <c r="N47" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="O47" s="7" t="s">
+      <c r="O47" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="P47" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="Q47" s="7" t="s">
+      <c r="Q47" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="R47" s="7" t="s">
+      <c r="R47" s="5" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>379</v>
       </c>
@@ -5864,7 +5901,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>380</v>
       </c>
@@ -5920,7 +5957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>381</v>
       </c>
@@ -5976,7 +6013,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>382</v>
       </c>
@@ -6032,7 +6069,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>383</v>
       </c>
@@ -6088,7 +6125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>384</v>
       </c>
@@ -6144,7 +6181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>385</v>
       </c>
@@ -6200,7 +6237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>386</v>
       </c>
@@ -6256,7 +6293,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>387</v>
       </c>
@@ -6312,7 +6349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>388</v>
       </c>
@@ -6368,208 +6405,214 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
-      <c r="A58" t="s">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
         <v>389</v>
       </c>
+      <c r="B58" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A58:B58"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" location="'Load'!A12:E13" display="PositiveSeqZload"/>
-    <hyperlink ref="B2" location="'Load'!A47:R58" display="ThreePhaseZIPLoad"/>
-    <hyperlink ref="A3" location="'Load'!A16:E17" display="PositiveSeqPload"/>
-    <hyperlink ref="A4" location="'Load'!A20:E21" display="PositiveSeqIload"/>
-    <hyperlink ref="A5" location="'Load'!A24:L37" display="SinglePhaseZIPLoad"/>
-    <hyperlink ref="A6" location="'Load'!A40:O44" display="TwoPhaseZIPLoad"/>
-    <hyperlink ref="C11" location="'Load'!A1" display="Go to Type List"/>
-    <hyperlink ref="C15" location="'Load'!A1" display="Go to Type List"/>
-    <hyperlink ref="C19" location="'Load'!A1" display="Go to Type List"/>
-    <hyperlink ref="C23" location="'Load'!A1" display="Go to Type List"/>
-    <hyperlink ref="C39" location="'Load'!A1" display="Go to Type List"/>
-    <hyperlink ref="C46" location="'Load'!A1" display="Go to Type List"/>
+    <hyperlink ref="A2" location="'Load'!A12:E13" display="PositiveSeqZload" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B2" location="'Load'!A47:R58" display="ThreePhaseZIPLoad" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="A3" location="'Load'!A16:E17" display="PositiveSeqPload" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="A4" location="'Load'!A20:E21" display="PositiveSeqIload" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="A5" location="'Load'!A24:L37" display="SinglePhaseZIPLoad" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="A6" location="'Load'!A40:O44" display="TwoPhaseZIPLoad" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="C11" location="'Load'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="C15" location="'Load'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="C19" location="'Load'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="C23" location="'Load'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="C39" location="'Load'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="C46" location="'Load'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="28" width="12.7109375" customWidth="1"/>
+    <col min="9" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="28" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
+      <c r="B13" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>409</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <v>1.099242423822566</v>
       </c>
       <c r="D17" t="s">
@@ -6578,25 +6621,25 @@
       <c r="E17" t="s">
         <v>218</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="7">
         <v>1.080893208248568</v>
       </c>
-      <c r="G17" s="9">
-        <v>0.573554814662024</v>
-      </c>
-      <c r="H17" s="9">
-        <v>1.63131996577316</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="G17" s="7">
+        <v>0.57355481466202396</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1.6313199657731601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>410</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="8">
-        <v>2.602272726278784</v>
+      <c r="C18" s="6">
+        <v>2.6022727262787839</v>
       </c>
       <c r="D18" t="s">
         <v>229</v>
@@ -6604,25 +6647,25 @@
       <c r="E18" t="s">
         <v>230</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="7">
         <v>1.080893208248568</v>
       </c>
-      <c r="G18" s="9">
-        <v>0.573554814662024</v>
-      </c>
-      <c r="H18" s="9">
-        <v>1.63131996577316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="G18" s="7">
+        <v>0.57355481466202396</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1.6313199657731601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>411</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="8">
-        <v>0.920454545102976</v>
+      <c r="C19" s="6">
+        <v>0.92045454510297597</v>
       </c>
       <c r="D19" t="s">
         <v>283</v>
@@ -6630,25 +6673,25 @@
       <c r="E19" t="s">
         <v>250</v>
       </c>
-      <c r="F19" s="9">
-        <v>0.741972505284088</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0.5487285500568561</v>
-      </c>
-      <c r="H19" s="9">
+      <c r="F19" s="7">
+        <v>0.74197250528408798</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.54872855005685606</v>
+      </c>
+      <c r="H19" s="7">
         <v>1.684833695570584</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>412</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="8">
-        <v>9.119318178335041</v>
+      <c r="C20" s="6">
+        <v>9.1193181783350408</v>
       </c>
       <c r="D20" t="s">
         <v>228</v>
@@ -6656,25 +6699,25 @@
       <c r="E20" t="s">
         <v>229</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="7">
         <v>1.080893208248568</v>
       </c>
-      <c r="G20" s="9">
-        <v>0.573554814662024</v>
-      </c>
-      <c r="H20" s="9">
-        <v>1.63131996577316</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="G20" s="7">
+        <v>0.57355481466202396</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1.6313199657731601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>413</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="8">
-        <v>0.573863636144448</v>
+      <c r="C21" s="6">
+        <v>0.57386363614444802</v>
       </c>
       <c r="D21" t="s">
         <v>232</v>
@@ -6682,25 +6725,25 @@
       <c r="E21" t="s">
         <v>234</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="7">
         <v>1.080893208248568</v>
       </c>
-      <c r="G21" s="9">
-        <v>0.573554814662024</v>
-      </c>
-      <c r="H21" s="9">
-        <v>1.63131996577316</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="G21" s="7">
+        <v>0.57355481466202396</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1.6313199657731601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>414</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="8">
-        <v>0.306818181700992</v>
+      <c r="C22" s="6">
+        <v>0.30681818170099201</v>
       </c>
       <c r="D22" t="s">
         <v>276</v>
@@ -6708,24 +6751,24 @@
       <c r="E22" t="s">
         <v>285</v>
       </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>415</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="6">
         <v>4.418560604372928</v>
       </c>
       <c r="D23" t="s">
@@ -6734,25 +6777,25 @@
       <c r="E23" t="s">
         <v>275</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="7">
         <v>1.080893208248568</v>
       </c>
-      <c r="G23" s="9">
-        <v>0.573554814662024</v>
-      </c>
-      <c r="H23" s="9">
-        <v>1.63131996577316</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="G23" s="7">
+        <v>0.57355481466202396</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1.6313199657731601</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>416</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="8">
-        <v>0.323863636239936</v>
+      <c r="C24" s="6">
+        <v>0.32386363623993603</v>
       </c>
       <c r="D24" t="s">
         <v>225</v>
@@ -6760,186 +6803,188 @@
       <c r="E24" t="s">
         <v>228</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="7">
         <v>1.080893208248568</v>
       </c>
-      <c r="G24" s="9">
-        <v>0.573554814662024</v>
-      </c>
-      <c r="H24" s="9">
-        <v>1.63131996577316</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
-      <c r="A25" t="s">
+      <c r="G24" s="7">
+        <v>0.57355481466202396</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1.6313199657731601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="27" spans="1:27">
-      <c r="A27" s="1" t="s">
+      <c r="B25" s="13"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="L28" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="M28" s="7" t="s">
+      <c r="M28" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="N28" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="O28" s="7" t="s">
+      <c r="O28" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="P28" s="5" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
-      <c r="A29" t="s">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="31" spans="1:27">
-      <c r="A31" s="1" t="s">
+      <c r="B29" s="13"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="M32" s="7" t="s">
+      <c r="M32" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="N32" s="7" t="s">
+      <c r="N32" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="O32" s="7" t="s">
+      <c r="O32" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="P32" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="Q32" s="7" t="s">
+      <c r="Q32" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="R32" s="7" t="s">
+      <c r="R32" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="S32" s="7" t="s">
+      <c r="S32" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="T32" s="7" t="s">
+      <c r="T32" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="U32" s="7" t="s">
+      <c r="U32" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="V32" s="7" t="s">
+      <c r="V32" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="W32" s="7" t="s">
+      <c r="W32" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="X32" s="7" t="s">
+      <c r="X32" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="Y32" s="7" t="s">
+      <c r="Y32" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="Z32" s="7" t="s">
+      <c r="Z32" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="AA32" s="7" t="s">
+      <c r="AA32" s="5" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>440</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" s="8">
-        <v>6.104166664335168</v>
+      <c r="C33" s="6">
+        <v>6.1041666643351684</v>
       </c>
       <c r="D33" t="s">
         <v>212</v>
@@ -6959,70 +7004,70 @@
       <c r="I33" t="s">
         <v>217</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="K33" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="L33" s="9">
+      <c r="K33" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="L33" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="M33" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="N33" s="9">
+      <c r="M33" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="N33" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="O33" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="P33" s="9">
+      <c r="O33" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="P33" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="Q33" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="R33" s="9">
+      <c r="Q33" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="R33" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="S33" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="T33" s="9">
+      <c r="S33" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="T33" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="U33" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="V33" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="W33" s="9">
-        <v>0</v>
-      </c>
-      <c r="X33" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="Y33" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="9">
+      <c r="U33" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="V33" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="W33" s="7">
+        <v>0</v>
+      </c>
+      <c r="X33" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="Y33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="7">
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>3.10685596</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+        <v>3.1068559599999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>441</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="8">
-        <v>0.001893939393216</v>
+      <c r="C34" s="6">
+        <v>1.893939393216E-3</v>
       </c>
       <c r="D34" t="s">
         <v>241</v>
@@ -7042,70 +7087,70 @@
       <c r="I34" t="s">
         <v>444</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="K34" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="L34" s="9">
+      <c r="K34" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="L34" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="M34" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="N34" s="9">
+      <c r="M34" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="N34" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="O34" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="P34" s="9">
+      <c r="O34" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="P34" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="Q34" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="R34" s="9">
+      <c r="Q34" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="R34" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="S34" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="T34" s="9">
+      <c r="S34" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="T34" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="U34" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="V34" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="W34" s="9">
-        <v>0</v>
-      </c>
-      <c r="X34" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="Y34" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="9">
+      <c r="U34" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="V34" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="W34" s="7">
+        <v>0</v>
+      </c>
+      <c r="X34" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="Y34" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="7">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>3.10685596</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+        <v>3.1068559599999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>445</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="8">
-        <v>6.975378785214528</v>
+      <c r="C35" s="6">
+        <v>6.9753787852145281</v>
       </c>
       <c r="D35" t="s">
         <v>272</v>
@@ -7125,70 +7170,70 @@
       <c r="I35" t="s">
         <v>271</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="K35" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="L35" s="9">
+      <c r="K35" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="L35" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="M35" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="N35" s="9">
+      <c r="M35" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="N35" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="O35" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="P35" s="9">
+      <c r="O35" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="P35" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="Q35" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="R35" s="9">
+      <c r="Q35" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="R35" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="S35" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="T35" s="9">
+      <c r="S35" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="T35" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="U35" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="V35" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="W35" s="9">
-        <v>0</v>
-      </c>
-      <c r="X35" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="Y35" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="9">
+      <c r="U35" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="V35" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="W35" s="7">
+        <v>0</v>
+      </c>
+      <c r="X35" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="7">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>3.10685596</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+        <v>3.1068559599999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>446</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" s="8">
-        <v>7.10227272456</v>
+      <c r="C36" s="6">
+        <v>7.1022727245599997</v>
       </c>
       <c r="D36" t="s">
         <v>215</v>
@@ -7208,69 +7253,69 @@
       <c r="I36" t="s">
         <v>221</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="K36" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="L36" s="9">
+      <c r="K36" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="L36" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="M36" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="N36" s="9">
+      <c r="M36" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="N36" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="O36" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="P36" s="9">
+      <c r="O36" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="P36" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="Q36" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="R36" s="9">
+      <c r="Q36" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="R36" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="S36" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="T36" s="9">
+      <c r="S36" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="T36" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="U36" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="V36" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="W36" s="9">
-        <v>0</v>
-      </c>
-      <c r="X36" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="Y36" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="9">
+      <c r="U36" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="V36" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="W36" s="7">
+        <v>0</v>
+      </c>
+      <c r="X36" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="7">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>3.10685596</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+        <v>3.1068559599999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>447</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="6">
         <v>0.488636363449728</v>
       </c>
       <c r="D37" t="s">
@@ -7291,70 +7336,70 @@
       <c r="I37" t="s">
         <v>211</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="K37" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="L37" s="9">
+      <c r="K37" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="L37" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="M37" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="N37" s="9">
+      <c r="M37" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="N37" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="O37" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="P37" s="9">
+      <c r="O37" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="P37" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="Q37" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="R37" s="9">
+      <c r="Q37" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="R37" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="S37" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="T37" s="9">
+      <c r="S37" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="T37" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="U37" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="V37" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="W37" s="9">
-        <v>0</v>
-      </c>
-      <c r="X37" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="Y37" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="9">
+      <c r="U37" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="V37" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="W37" s="7">
+        <v>0</v>
+      </c>
+      <c r="X37" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="Y37" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="7">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>3.10685596</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+        <v>3.1068559599999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>448</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="8">
-        <v>3.871212119733504</v>
+      <c r="C38" s="6">
+        <v>3.8712121197335039</v>
       </c>
       <c r="D38" t="s">
         <v>235</v>
@@ -7374,70 +7419,70 @@
       <c r="I38" t="s">
         <v>240</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="K38" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="L38" s="9">
+      <c r="K38" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="L38" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="M38" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="N38" s="9">
+      <c r="M38" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="N38" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="O38" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="P38" s="9">
+      <c r="O38" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="P38" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="Q38" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="R38" s="9">
+      <c r="Q38" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="R38" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="S38" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="T38" s="9">
+      <c r="S38" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="T38" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="U38" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="V38" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="W38" s="9">
-        <v>0</v>
-      </c>
-      <c r="X38" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="Y38" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="9">
+      <c r="U38" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="V38" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="W38" s="7">
+        <v>0</v>
+      </c>
+      <c r="X38" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="Y38" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="7">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>3.10685596</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+        <v>3.1068559599999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>449</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="8">
-        <v>0.507575757381888</v>
+      <c r="C39" s="6">
+        <v>0.50757575738188798</v>
       </c>
       <c r="D39" t="s">
         <v>279</v>
@@ -7457,70 +7502,70 @@
       <c r="I39" t="s">
         <v>249</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="K39" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="L39" s="9">
+      <c r="K39" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="L39" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="M39" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="N39" s="9">
+      <c r="M39" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="N39" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="O39" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="P39" s="9">
+      <c r="O39" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="P39" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="Q39" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="R39" s="9">
+      <c r="Q39" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="R39" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="S39" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="T39" s="9">
+      <c r="S39" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="T39" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="U39" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="V39" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="W39" s="9">
-        <v>0</v>
-      </c>
-      <c r="X39" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="Y39" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="9">
+      <c r="U39" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="V39" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="W39" s="7">
+        <v>0</v>
+      </c>
+      <c r="X39" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="Y39" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="7">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>3.10685596</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+        <v>3.1068559599999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>450</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" s="8">
-        <v>0.25568181808416</v>
+      <c r="C40" s="6">
+        <v>0.25568181808416002</v>
       </c>
       <c r="D40" t="s">
         <v>254</v>
@@ -7540,70 +7585,70 @@
       <c r="I40" t="s">
         <v>259</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="K40" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="L40" s="9">
+      <c r="K40" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="L40" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="M40" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="N40" s="9">
+      <c r="M40" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="N40" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="O40" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="P40" s="9">
+      <c r="O40" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="P40" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="Q40" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="R40" s="9">
+      <c r="Q40" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="R40" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="S40" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="T40" s="9">
+      <c r="S40" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="T40" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="U40" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="V40" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="W40" s="9">
-        <v>0</v>
-      </c>
-      <c r="X40" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="Y40" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="9">
+      <c r="U40" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="V40" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="W40" s="7">
+        <v>0</v>
+      </c>
+      <c r="X40" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="Y40" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="7">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>3.10685596</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+        <v>3.1068559599999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>451</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="C41" s="8">
-        <v>0.382575757429632</v>
+      <c r="C41" s="6">
+        <v>0.38257575742963201</v>
       </c>
       <c r="D41" t="s">
         <v>244</v>
@@ -7623,70 +7668,70 @@
       <c r="I41" t="s">
         <v>281</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="K41" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="L41" s="9">
+      <c r="K41" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="L41" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="M41" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="N41" s="9">
+      <c r="M41" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="N41" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="O41" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="P41" s="9">
+      <c r="O41" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="P41" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="Q41" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="R41" s="9">
+      <c r="Q41" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="R41" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="S41" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="T41" s="9">
+      <c r="S41" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="T41" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="U41" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="V41" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="W41" s="9">
-        <v>0</v>
-      </c>
-      <c r="X41" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="Y41" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="9">
+      <c r="U41" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="V41" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="W41" s="7">
+        <v>0</v>
+      </c>
+      <c r="X41" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="Y41" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="7">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>3.10685596</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+        <v>3.1068559599999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>452</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" s="8">
-        <v>0.327651515026368</v>
+      <c r="C42" s="6">
+        <v>0.32765151502636802</v>
       </c>
       <c r="D42" t="s">
         <v>208</v>
@@ -7706,70 +7751,70 @@
       <c r="I42" t="s">
         <v>214</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="K42" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="L42" s="9">
+      <c r="K42" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="L42" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="M42" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="N42" s="9">
+      <c r="M42" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="N42" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="O42" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="P42" s="9">
+      <c r="O42" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="P42" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="Q42" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="R42" s="9">
+      <c r="Q42" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="R42" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="S42" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="T42" s="9">
+      <c r="S42" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="T42" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="U42" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="V42" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="W42" s="9">
-        <v>0</v>
-      </c>
-      <c r="X42" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="Y42" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="9">
+      <c r="U42" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="V42" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="W42" s="7">
+        <v>0</v>
+      </c>
+      <c r="X42" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="Y42" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="7">
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>3.10685596</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+        <v>3.1068559599999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>453</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" s="8">
-        <v>0.058712121189696</v>
+      <c r="C43" s="6">
+        <v>5.8712121189696001E-2</v>
       </c>
       <c r="D43" t="s">
         <v>266</v>
@@ -7789,70 +7834,70 @@
       <c r="I43" t="s">
         <v>227</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="K43" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="L43" s="9">
+      <c r="K43" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="L43" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="M43" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="N43" s="9">
+      <c r="M43" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="N43" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="O43" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="P43" s="9">
+      <c r="O43" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="P43" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="Q43" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="R43" s="9">
+      <c r="Q43" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="R43" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="S43" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="T43" s="9">
+      <c r="S43" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="T43" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="U43" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="V43" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="W43" s="9">
-        <v>0</v>
-      </c>
-      <c r="X43" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="Y43" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="9">
+      <c r="U43" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="V43" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="W43" s="7">
+        <v>0</v>
+      </c>
+      <c r="X43" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="Y43" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="7">
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>3.10685596</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+        <v>3.1068559599999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>454</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44" s="8">
-        <v>0.689393939130624</v>
+      <c r="C44" s="6">
+        <v>0.68939393913062397</v>
       </c>
       <c r="D44" t="s">
         <v>257</v>
@@ -7872,69 +7917,69 @@
       <c r="I44" t="s">
         <v>262</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="K44" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="L44" s="9">
+      <c r="K44" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="L44" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="M44" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="N44" s="9">
+      <c r="M44" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="N44" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="O44" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="P44" s="9">
+      <c r="O44" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="P44" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="Q44" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="R44" s="9">
+      <c r="Q44" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="R44" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="S44" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="T44" s="9">
+      <c r="S44" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="T44" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="U44" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="V44" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="W44" s="9">
-        <v>0</v>
-      </c>
-      <c r="X44" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="Y44" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="9">
+      <c r="U44" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="V44" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="W44" s="7">
+        <v>0</v>
+      </c>
+      <c r="X44" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="Y44" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="7">
         <v>0</v>
       </c>
       <c r="AA44">
-        <v>3.10685596</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+        <v>3.1068559599999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>455</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="6">
         <v>0.159090909030144</v>
       </c>
       <c r="D45" t="s">
@@ -7955,70 +8000,70 @@
       <c r="I45" t="s">
         <v>237</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="K45" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="L45" s="9">
+      <c r="K45" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="L45" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="M45" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="N45" s="9">
+      <c r="M45" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="N45" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="O45" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="P45" s="9">
+      <c r="O45" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="P45" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="Q45" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="R45" s="9">
+      <c r="Q45" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="R45" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="S45" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="T45" s="9">
+      <c r="S45" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="T45" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="U45" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="V45" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="W45" s="9">
-        <v>0</v>
-      </c>
-      <c r="X45" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="Y45" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="9">
+      <c r="U45" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="V45" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="W45" s="7">
+        <v>0</v>
+      </c>
+      <c r="X45" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="Y45" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="7">
         <v>0</v>
       </c>
       <c r="AA45">
-        <v>3.10685596</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+        <v>3.1068559599999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>456</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-      <c r="C46" s="8">
-        <v>0.053030303010048</v>
+      <c r="C46" s="6">
+        <v>5.3030303010047998E-2</v>
       </c>
       <c r="D46" t="s">
         <v>247</v>
@@ -8038,70 +8083,70 @@
       <c r="I46" t="s">
         <v>284</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J46" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="K46" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="L46" s="9">
+      <c r="K46" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="L46" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="M46" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="N46" s="9">
+      <c r="M46" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="N46" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="O46" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="P46" s="9">
+      <c r="O46" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="P46" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="Q46" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="R46" s="9">
+      <c r="Q46" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="R46" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="S46" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="T46" s="9">
+      <c r="S46" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="T46" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="U46" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="V46" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="W46" s="9">
-        <v>0</v>
-      </c>
-      <c r="X46" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="Y46" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="9">
+      <c r="U46" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="V46" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="W46" s="7">
+        <v>0</v>
+      </c>
+      <c r="X46" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="Y46" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="7">
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>3.10685596</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+        <v>3.1068559599999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>457</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-      <c r="C47" s="8">
-        <v>0.92803030267584</v>
+      <c r="C47" s="6">
+        <v>0.92803030267583997</v>
       </c>
       <c r="D47" t="s">
         <v>241</v>
@@ -8121,69 +8166,69 @@
       <c r="I47" t="s">
         <v>278</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J47" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="K47" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="L47" s="9">
+      <c r="K47" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="L47" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="M47" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="N47" s="9">
+      <c r="M47" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="N47" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="O47" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="P47" s="9">
+      <c r="O47" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="P47" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="Q47" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="R47" s="9">
+      <c r="Q47" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="R47" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="S47" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="T47" s="9">
+      <c r="S47" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="T47" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="U47" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="V47" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="W47" s="9">
-        <v>0</v>
-      </c>
-      <c r="X47" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="Y47" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="9">
+      <c r="U47" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="V47" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="W47" s="7">
+        <v>0</v>
+      </c>
+      <c r="X47" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="Y47" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="7">
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>3.10685596</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+        <v>3.1068559599999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>458</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="6">
         <v>5.630681816031168</v>
       </c>
       <c r="D48" t="s">
@@ -8204,70 +8249,70 @@
       <c r="I48" t="s">
         <v>224</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J48" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="K48" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="L48" s="9">
+      <c r="K48" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="L48" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="M48" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="N48" s="9">
+      <c r="M48" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="N48" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="O48" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="P48" s="9">
+      <c r="O48" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="P48" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="Q48" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="R48" s="9">
+      <c r="Q48" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="R48" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="S48" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="T48" s="9">
+      <c r="S48" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="T48" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="U48" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="V48" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="W48" s="9">
-        <v>0</v>
-      </c>
-      <c r="X48" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="Y48" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="9">
+      <c r="U48" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="V48" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="W48" s="7">
+        <v>0</v>
+      </c>
+      <c r="X48" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="Y48" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="7">
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>3.10685596</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+        <v>3.1068559599999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>459</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" s="8">
-        <v>0.053030303010048</v>
+      <c r="C49" s="6">
+        <v>5.3030303010047998E-2</v>
       </c>
       <c r="D49" t="s">
         <v>244</v>
@@ -8287,70 +8332,70 @@
       <c r="I49" t="s">
         <v>256</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J49" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="K49" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="L49" s="9">
+      <c r="K49" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="L49" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="M49" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="N49" s="9">
+      <c r="M49" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="N49" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="O49" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="P49" s="9">
+      <c r="O49" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="P49" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="Q49" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="R49" s="9">
+      <c r="Q49" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="R49" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="S49" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="T49" s="9">
+      <c r="S49" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="T49" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="U49" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="V49" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="W49" s="9">
-        <v>0</v>
-      </c>
-      <c r="X49" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="Y49" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="9">
+      <c r="U49" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="V49" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="W49" s="7">
+        <v>0</v>
+      </c>
+      <c r="X49" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="Y49" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="7">
         <v>0</v>
       </c>
       <c r="AA49">
-        <v>3.10685596</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+        <v>3.1068559599999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>460</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="C50" s="8">
-        <v>1.933712120473536</v>
+      <c r="C50" s="6">
+        <v>1.9337121204735359</v>
       </c>
       <c r="D50" t="s">
         <v>225</v>
@@ -8370,69 +8415,69 @@
       <c r="I50" t="s">
         <v>233</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J50" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="K50" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="L50" s="9">
+      <c r="K50" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="L50" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="M50" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="N50" s="9">
+      <c r="M50" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="N50" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="O50" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="P50" s="9">
+      <c r="O50" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="P50" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="Q50" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="R50" s="9">
+      <c r="Q50" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="R50" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="S50" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="T50" s="9">
+      <c r="S50" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="T50" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="U50" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="V50" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="W50" s="9">
-        <v>0</v>
-      </c>
-      <c r="X50" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="Y50" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="9">
+      <c r="U50" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="V50" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="W50" s="7">
+        <v>0</v>
+      </c>
+      <c r="X50" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="Y50" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="7">
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>3.10685596</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+        <v>3.1068559599999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>461</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="6">
         <v>0.162878787816576</v>
       </c>
       <c r="D51" t="s">
@@ -8453,69 +8498,69 @@
       <c r="I51" t="s">
         <v>253</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J51" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="K51" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="L51" s="9">
+      <c r="K51" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="L51" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="M51" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="N51" s="9">
+      <c r="M51" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="N51" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="O51" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="P51" s="9">
+      <c r="O51" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="P51" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="Q51" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="R51" s="9">
+      <c r="Q51" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="R51" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="S51" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="T51" s="9">
+      <c r="S51" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="T51" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="U51" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="V51" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="W51" s="9">
-        <v>0</v>
-      </c>
-      <c r="X51" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="Y51" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="9">
+      <c r="U51" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="V51" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="W51" s="7">
+        <v>0</v>
+      </c>
+      <c r="X51" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="Y51" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="7">
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>3.10685596</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+        <v>3.1068559599999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>462</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="6">
         <v>0.100378787840448</v>
       </c>
       <c r="D52" t="s">
@@ -8536,70 +8581,70 @@
       <c r="I52" t="s">
         <v>265</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J52" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="K52" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="L52" s="9">
+      <c r="K52" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="L52" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="M52" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="N52" s="9">
+      <c r="M52" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="N52" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="O52" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="P52" s="9">
+      <c r="O52" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="P52" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="Q52" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="R52" s="9">
+      <c r="Q52" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="R52" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="S52" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="T52" s="9">
+      <c r="S52" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="T52" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="U52" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="V52" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="W52" s="9">
-        <v>0</v>
-      </c>
-      <c r="X52" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="Y52" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="9">
+      <c r="U52" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="V52" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="W52" s="7">
+        <v>0</v>
+      </c>
+      <c r="X52" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="Y52" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="7">
         <v>0</v>
       </c>
       <c r="AA52">
-        <v>3.10685596</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+        <v>3.1068559599999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>463</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-      <c r="C53" s="8">
-        <v>0.001893939393216</v>
+      <c r="C53" s="6">
+        <v>1.893939393216E-3</v>
       </c>
       <c r="D53" t="s">
         <v>222</v>
@@ -8619,70 +8664,70 @@
       <c r="I53" t="s">
         <v>268</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J53" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="K53" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="L53" s="9">
+      <c r="K53" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="L53" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="M53" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="N53" s="9">
+      <c r="M53" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="N53" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="O53" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="P53" s="9">
+      <c r="O53" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="P53" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="Q53" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="R53" s="9">
+      <c r="Q53" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="R53" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="S53" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="T53" s="9">
+      <c r="S53" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="T53" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="U53" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="V53" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="W53" s="9">
-        <v>0</v>
-      </c>
-      <c r="X53" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="Y53" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="9">
+      <c r="U53" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="V53" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="W53" s="7">
+        <v>0</v>
+      </c>
+      <c r="X53" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="Y53" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="7">
         <v>0</v>
       </c>
       <c r="AA53">
-        <v>3.10685596</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+        <v>3.1068559599999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>464</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-      <c r="C54" s="8">
-        <v>1.999999999236096</v>
+      <c r="C54" s="6">
+        <v>1.9999999992360959</v>
       </c>
       <c r="D54" t="s">
         <v>286</v>
@@ -8702,70 +8747,70 @@
       <c r="I54" t="s">
         <v>291</v>
       </c>
-      <c r="J54" s="9">
+      <c r="J54" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="K54" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="L54" s="9">
+      <c r="K54" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="L54" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="M54" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="N54" s="9">
+      <c r="M54" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="N54" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="O54" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="P54" s="9">
+      <c r="O54" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="P54" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="Q54" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="R54" s="9">
+      <c r="Q54" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="R54" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="S54" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="T54" s="9">
+      <c r="S54" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="T54" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="U54" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="V54" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="W54" s="9">
-        <v>0</v>
-      </c>
-      <c r="X54" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="Y54" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="9">
+      <c r="U54" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="V54" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="W54" s="7">
+        <v>0</v>
+      </c>
+      <c r="X54" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="Y54" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="7">
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>3.10685596</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+        <v>3.1068559599999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>465</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
-      <c r="C55" s="8">
-        <v>0.098484848447232</v>
+      <c r="C55" s="6">
+        <v>9.8484848447232001E-2</v>
       </c>
       <c r="D55" t="s">
         <v>238</v>
@@ -8785,70 +8830,70 @@
       <c r="I55" t="s">
         <v>274</v>
       </c>
-      <c r="J55" s="9">
+      <c r="J55" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="K55" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="L55" s="9">
+      <c r="K55" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="L55" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="M55" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="N55" s="9">
+      <c r="M55" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="N55" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="O55" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="P55" s="9">
+      <c r="O55" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="P55" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="Q55" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="R55" s="9">
+      <c r="Q55" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="R55" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="S55" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="T55" s="9">
+      <c r="S55" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="T55" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="U55" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="V55" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="W55" s="9">
-        <v>0</v>
-      </c>
-      <c r="X55" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="Y55" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="9">
+      <c r="U55" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="V55" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="W55" s="7">
+        <v>0</v>
+      </c>
+      <c r="X55" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="Y55" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="7">
         <v>0</v>
       </c>
       <c r="AA55">
-        <v>3.10685596</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+        <v>3.1068559599999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>466</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
-      <c r="C56" s="8">
-        <v>1.104166666244928</v>
+      <c r="C56" s="6">
+        <v>1.1041666662449281</v>
       </c>
       <c r="D56" t="s">
         <v>276</v>
@@ -8868,166 +8913,169 @@
       <c r="I56" t="s">
         <v>246</v>
       </c>
-      <c r="J56" s="9">
+      <c r="J56" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="K56" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="L56" s="9">
+      <c r="K56" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="L56" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="M56" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="N56" s="9">
+      <c r="M56" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="N56" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="O56" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="P56" s="9">
+      <c r="O56" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="P56" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="Q56" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="R56" s="9">
+      <c r="Q56" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="R56" s="7">
         <v>0.1242742384</v>
       </c>
-      <c r="S56" s="9">
-        <v>0.4349598344</v>
-      </c>
-      <c r="T56" s="9">
+      <c r="S56" s="7">
+        <v>0.43495983440000002</v>
+      </c>
+      <c r="T56" s="7">
         <v>0.2485484768</v>
       </c>
-      <c r="U56" s="9">
-        <v>0.8699196687999999</v>
-      </c>
-      <c r="V56" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="W56" s="9">
-        <v>0</v>
-      </c>
-      <c r="X56" s="9">
-        <v>3.10685596</v>
-      </c>
-      <c r="Y56" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="9">
+      <c r="U56" s="7">
+        <v>0.86991966879999993</v>
+      </c>
+      <c r="V56" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="W56" s="7">
+        <v>0</v>
+      </c>
+      <c r="X56" s="7">
+        <v>3.1068559599999999</v>
+      </c>
+      <c r="Y56" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="7">
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>3.10685596</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
-      <c r="A57" t="s">
+        <v>3.1068559599999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="59" spans="1:27">
-      <c r="A59" s="1" t="s">
+      <c r="B57" s="13"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="B59" s="1"/>
+      <c r="B59" s="12"/>
       <c r="C59" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:27">
-      <c r="A60" s="7" t="s">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H60" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="I60" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="J60" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="K60" s="7" t="s">
+      <c r="K60" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="L60" s="7" t="s">
+      <c r="L60" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="M60" s="7" t="s">
+      <c r="M60" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="N60" s="7" t="s">
+      <c r="N60" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="O60" s="7" t="s">
+      <c r="O60" s="5" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
-      <c r="A61" t="s">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
         <v>475</v>
       </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A61:C61"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" location="'Line'!A12:G13" display="PositiveSeqLine"/>
-    <hyperlink ref="A3" location="'Line'!A16:H25" display="SinglePhaseLine"/>
-    <hyperlink ref="A4" location="'Line'!A28:P29" display="TwoPhaseLine"/>
-    <hyperlink ref="A5" location="'Line'!A32:AA57" display="ThreePhaseLineFullData"/>
-    <hyperlink ref="A6" location="'Line'!A60:O61" display="ThreePhaseLineSequentialData"/>
-    <hyperlink ref="C11" location="'Line'!A1" display="Go to Type List"/>
-    <hyperlink ref="C15" location="'Line'!A1" display="Go to Type List"/>
-    <hyperlink ref="C27" location="'Line'!A1" display="Go to Type List"/>
-    <hyperlink ref="C31" location="'Line'!A1" display="Go to Type List"/>
-    <hyperlink ref="C59" location="'Line'!A1" display="Go to Type List"/>
+    <hyperlink ref="A2" location="'Line'!A12:G13" display="PositiveSeqLine" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A3" location="'Line'!A16:H25" display="SinglePhaseLine" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A4" location="'Line'!A28:P29" display="TwoPhaseLine" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="A5" location="'Line'!A32:AA57" display="ThreePhaseLineFullData" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="A6" location="'Line'!A60:O61" display="ThreePhaseLineSequentialData" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="C11" location="'Line'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="C15" location="'Line'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="C27" location="'Line'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="C31" location="'Line'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="C59" location="'Line'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
@@ -9044,279 +9092,283 @@
     <col min="24" max="25" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="6" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="6" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="5" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="1" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="P16" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="Q16" s="7" t="s">
+      <c r="Q16" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="R16" s="7" t="s">
+      <c r="R16" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="S16" s="7" t="s">
+      <c r="S16" s="5" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
-      <c r="A17" t="s">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
-      <c r="A19" s="1" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="P20" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="Q20" s="7" t="s">
+      <c r="Q20" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="R20" s="7" t="s">
+      <c r="R20" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="S20" s="7" t="s">
+      <c r="S20" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="T20" s="7" t="s">
+      <c r="T20" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="U20" s="7" t="s">
+      <c r="U20" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="V20" s="7" t="s">
+      <c r="V20" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="W20" s="7" t="s">
+      <c r="W20" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X20" s="7" t="s">
+      <c r="X20" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="Y20" s="7" t="s">
+      <c r="Y20" s="5" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>512</v>
       </c>
@@ -9339,7 +9391,7 @@
         <v>24.9</v>
       </c>
       <c r="H21" s="2">
-        <v>500.00102</v>
+        <v>500.00101999999998</v>
       </c>
       <c r="I21" t="s">
         <v>354</v>
@@ -9357,7 +9409,7 @@
         <v>4.16</v>
       </c>
       <c r="N21" s="2">
-        <v>500.00102</v>
+        <v>500.00101999999998</v>
       </c>
       <c r="O21" t="s">
         <v>354</v>
@@ -9371,161 +9423,167 @@
       <c r="R21" s="2">
         <v>1</v>
       </c>
-      <c r="W21" s="10">
-        <v>0.0408</v>
-      </c>
-      <c r="X21" s="11">
-        <v>0.009499860000000001</v>
-      </c>
-      <c r="Y21" s="11">
-        <v>0.009499860000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
-      <c r="A22" t="s">
+      <c r="W21" s="8">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="X21" s="9">
+        <v>9.4998600000000006E-3</v>
+      </c>
+      <c r="Y21" s="9">
+        <v>9.4998600000000006E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="24" spans="1:27">
-      <c r="A24" s="1" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="L25" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="M25" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="N25" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="O25" s="7" t="s">
+      <c r="O25" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="P25" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="Q25" s="7" t="s">
+      <c r="Q25" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="R25" s="7" t="s">
+      <c r="R25" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="S25" s="7" t="s">
+      <c r="S25" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="T25" s="7" t="s">
+      <c r="T25" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="U25" s="7" t="s">
+      <c r="U25" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="V25" s="7" t="s">
+      <c r="V25" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="W25" s="7" t="s">
+      <c r="W25" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="X25" s="7" t="s">
+      <c r="X25" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="Y25" s="7" t="s">
+      <c r="Y25" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="Z25" s="7" t="s">
+      <c r="Z25" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="AA25" s="7" t="s">
+      <c r="AA25" s="5" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
-      <c r="A26" t="s">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>520</v>
       </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A26:D26"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" location="'Transformer'!A12:K13" display="PositiveSeq2wXF"/>
-    <hyperlink ref="A3" location="'Transformer'!A16:S17" display="PositiveSeq3wXF"/>
-    <hyperlink ref="A4" location="'Transformer'!A20:Y22" display="Multiphase2wXF"/>
-    <hyperlink ref="A5" location="'Transformer'!A25:AA26" display="Multiphase2wXFMutual"/>
-    <hyperlink ref="D11" location="'Transformer'!A1" display="Go to Type List"/>
-    <hyperlink ref="D15" location="'Transformer'!A1" display="Go to Type List"/>
-    <hyperlink ref="D19" location="'Transformer'!A1" display="Go to Type List"/>
-    <hyperlink ref="D24" location="'Transformer'!A1" display="Go to Type List"/>
+    <hyperlink ref="A2" location="'Transformer'!A12:K13" display="PositiveSeq2wXF" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="A3" location="'Transformer'!A16:S17" display="PositiveSeq3wXF" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="A4" location="'Transformer'!A20:Y22" display="Multiphase2wXF" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="A5" location="'Transformer'!A25:AA26" display="Multiphase2wXFMutual" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="D11" location="'Transformer'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="D15" location="'Transformer'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="D19" location="'Transformer'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="D24" location="'Transformer'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>521</v>
       </c>
@@ -9545,244 +9603,250 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="14" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="1" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="5" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="1" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="N24" s="5" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>538</v>
       </c>
@@ -9795,7 +9859,7 @@
       <c r="D25" s="3">
         <v>1</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="7">
         <v>14.38</v>
       </c>
       <c r="F25" t="s">
@@ -9826,7 +9890,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>539</v>
       </c>
@@ -9839,7 +9903,7 @@
       <c r="D26" s="3">
         <v>1</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="7">
         <v>14.38</v>
       </c>
       <c r="F26" t="s">
@@ -9870,34 +9934,36 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
-      <c r="A27" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>540</v>
       </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" location="'Shunt'!A12:E13" display="PositiveSeqShunt"/>
-    <hyperlink ref="A3" location="'Shunt'!A16:F17" display="SinglePhaseShunt"/>
-    <hyperlink ref="A4" location="'Shunt'!A20:J21" display="TwoPhaseShunt"/>
-    <hyperlink ref="A5" location="'Shunt'!A24:N27" display="ThreePhaseShunt"/>
-    <hyperlink ref="C11" location="'Shunt'!A1" display="Go to Type List"/>
-    <hyperlink ref="C15" location="'Shunt'!A1" display="Go to Type List"/>
-    <hyperlink ref="C19" location="'Shunt'!A1" display="Go to Type List"/>
-    <hyperlink ref="C23" location="'Shunt'!A1" display="Go to Type List"/>
+    <hyperlink ref="A2" location="'Shunt'!A12:E13" display="PositiveSeqShunt" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="A3" location="'Shunt'!A16:F17" display="SinglePhaseShunt" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="A4" location="'Shunt'!A20:J21" display="TwoPhaseShunt" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="A5" location="'Shunt'!A24:N27" display="ThreePhaseShunt" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="C11" location="'Shunt'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="C15" location="'Shunt'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
+    <hyperlink ref="C19" location="'Shunt'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
+    <hyperlink ref="C23" location="'Shunt'!A1" display="Go to Type List" xr:uid="{00000000-0004-0000-0800-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
